--- a/teaching/traditional_assets/database/data/nigeria/nigeria_metals_mining.xlsx
+++ b/teaching/traditional_assets/database/data/nigeria/nigeria_metals_mining.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.403</v>
+        <v>-0.452</v>
       </c>
       <c r="G2">
-        <v>-1.357142857142857</v>
+        <v>-37.11111111111111</v>
       </c>
       <c r="H2">
-        <v>-1.357142857142857</v>
+        <v>-37.11111111111111</v>
       </c>
       <c r="I2">
-        <v>-21.5</v>
+        <v>-50.33333333333334</v>
       </c>
       <c r="J2">
-        <v>-21.5</v>
+        <v>-50.33333333333334</v>
       </c>
       <c r="K2">
-        <v>-0.604</v>
+        <v>-0.8</v>
       </c>
       <c r="L2">
-        <v>-43.14285714285714</v>
+        <v>-88.8888888888889</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,70 +636,70 @@
         <v>0.001</v>
       </c>
       <c r="V2">
-        <v>0.000425531914893617</v>
+        <v>0.0004484304932735426</v>
       </c>
       <c r="W2">
-        <v>-0.2287878787878788</v>
+        <v>-0.3902439024390245</v>
       </c>
       <c r="X2">
-        <v>0.4257028260787882</v>
+        <v>0.3078454964923482</v>
       </c>
       <c r="Y2">
-        <v>-0.6544907048666671</v>
+        <v>-0.6980893989313726</v>
       </c>
       <c r="Z2">
-        <v>0.001309145315129979</v>
+        <v>0.0008629782337712148</v>
       </c>
       <c r="AA2">
-        <v>-0.02814662427529455</v>
+        <v>-0.04343657109981781</v>
       </c>
       <c r="AB2">
-        <v>0.1338048534242662</v>
+        <v>0.1089274929401542</v>
       </c>
       <c r="AC2">
-        <v>-0.1619514776995608</v>
+        <v>-0.152364064039972</v>
       </c>
       <c r="AD2">
-        <v>8.380000000000001</v>
+        <v>8.23</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>8.380000000000001</v>
+        <v>8.23</v>
       </c>
       <c r="AG2">
-        <v>8.379000000000001</v>
+        <v>8.229000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.7809878844361603</v>
+        <v>0.7868068833652008</v>
       </c>
       <c r="AI2">
-        <v>0.803451581975072</v>
+        <v>0.8811563169164883</v>
       </c>
       <c r="AJ2">
-        <v>0.7809674713393606</v>
+        <v>0.78678649966536</v>
       </c>
       <c r="AK2">
-        <v>0.803432735641001</v>
+        <v>0.8811435913909412</v>
       </c>
       <c r="AL2">
-        <v>0.287</v>
+        <v>0.302</v>
       </c>
       <c r="AM2">
-        <v>0.287</v>
+        <v>0.302</v>
       </c>
       <c r="AN2">
-        <v>335.2</v>
+        <v>-25.09146341463414</v>
       </c>
       <c r="AO2">
-        <v>-1.048780487804878</v>
+        <v>-1.5</v>
       </c>
       <c r="AP2">
-        <v>335.16</v>
+        <v>-25.08841463414634</v>
       </c>
       <c r="AQ2">
-        <v>-1.048780487804878</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.403</v>
+        <v>-0.452</v>
       </c>
       <c r="G3">
-        <v>-1.357142857142857</v>
+        <v>-37.11111111111111</v>
       </c>
       <c r="H3">
-        <v>-1.357142857142857</v>
+        <v>-37.11111111111111</v>
       </c>
       <c r="I3">
-        <v>-21.5</v>
+        <v>-50.33333333333334</v>
       </c>
       <c r="J3">
-        <v>-21.5</v>
+        <v>-50.33333333333334</v>
       </c>
       <c r="K3">
-        <v>-0.604</v>
+        <v>-0.8</v>
       </c>
       <c r="L3">
-        <v>-43.14285714285714</v>
+        <v>-88.8888888888889</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -764,70 +764,70 @@
         <v>0.001</v>
       </c>
       <c r="V3">
-        <v>0.000425531914893617</v>
+        <v>0.0004484304932735426</v>
       </c>
       <c r="W3">
-        <v>-0.2287878787878788</v>
+        <v>-0.3902439024390245</v>
       </c>
       <c r="X3">
-        <v>0.4257028260787882</v>
+        <v>0.3078454964923482</v>
       </c>
       <c r="Y3">
-        <v>-0.6544907048666671</v>
+        <v>-0.6980893989313726</v>
       </c>
       <c r="Z3">
-        <v>0.001309145315129979</v>
+        <v>0.0008629782337712148</v>
       </c>
       <c r="AA3">
-        <v>-0.02814662427529455</v>
+        <v>-0.04343657109981781</v>
       </c>
       <c r="AB3">
-        <v>0.1338048534242662</v>
+        <v>0.1089274929401542</v>
       </c>
       <c r="AC3">
-        <v>-0.1619514776995608</v>
+        <v>-0.152364064039972</v>
       </c>
       <c r="AD3">
-        <v>8.380000000000001</v>
+        <v>8.23</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>8.380000000000001</v>
+        <v>8.23</v>
       </c>
       <c r="AG3">
-        <v>8.379000000000001</v>
+        <v>8.229000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.7809878844361603</v>
+        <v>0.7868068833652008</v>
       </c>
       <c r="AI3">
-        <v>0.803451581975072</v>
+        <v>0.8811563169164883</v>
       </c>
       <c r="AJ3">
-        <v>0.7809674713393606</v>
+        <v>0.78678649966536</v>
       </c>
       <c r="AK3">
-        <v>0.803432735641001</v>
+        <v>0.8811435913909412</v>
       </c>
       <c r="AL3">
-        <v>0.287</v>
+        <v>0.302</v>
       </c>
       <c r="AM3">
-        <v>0.287</v>
+        <v>0.302</v>
       </c>
       <c r="AN3">
-        <v>335.2</v>
+        <v>-25.09146341463414</v>
       </c>
       <c r="AO3">
-        <v>-1.048780487804878</v>
+        <v>-1.5</v>
       </c>
       <c r="AP3">
-        <v>335.16</v>
+        <v>-25.08841463414634</v>
       </c>
       <c r="AQ3">
-        <v>-1.048780487804878</v>
+        <v>-1.5</v>
       </c>
     </row>
   </sheetData>
